--- a/reparaciones.xlsx
+++ b/reparaciones.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1598,10 +1598,8 @@
           <t>Daniel Gerardo</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>8165723584</t>
-        </is>
+      <c r="B34" t="n">
+        <v>8165723584</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1626,6 +1624,113 @@
       <c r="G34" t="inlineStr">
         <is>
           <t>2025-04-02 11:38:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Daniel Gerardo</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>8135073301</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>ZCLAUDIA2010@HOTMAIL.COM</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Microondas</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>LG</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>csdsfdgfjhgkj</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>2025-04-03 13:41:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Daniel Gerardo</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>8116409574</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>AL02720246@tecmilenio.mx</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Bocina Amplificada</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>fghfgh</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>scadsvfbdhgmh,k.</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>2025-04-03 13:43:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Daniel Gerardo</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>8125685838</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>danieltamezmtz@hotmail.com</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Microondas</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>FDGFXGJCHV</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>sdvfbgrdtmy.u</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>2025-04-03 13:45:38</t>
         </is>
       </c>
     </row>
